--- a/Create Account.xlsx
+++ b/Create Account.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Testcase\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Testcase-Mock-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11D85179-5A69-45DE-A126-DD85504D55E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA434DC6-D3AD-4FAE-A10B-A1231ED86675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{4F45FE4C-BBDD-4EBF-81A1-EA51451AF22B}"/>
   </bookViews>
@@ -1961,7 +1961,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -2131,34 +2131,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2176,6 +2167,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2183,6 +2177,12 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2205,6 +2205,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2639,16 +2648,16 @@
       </c>
     </row>
     <row r="2" spans="1:35">
-      <c r="A2" s="106" t="s">
+      <c r="A2" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="91" t="s">
+      <c r="B2" s="96" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="91" t="s">
+      <c r="C2" s="96" t="s">
         <v>83</v>
       </c>
-      <c r="D2" s="91" t="s">
+      <c r="D2" s="96" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="3">
@@ -2688,10 +2697,10 @@
       <c r="AI2" s="74"/>
     </row>
     <row r="3" spans="1:35">
-      <c r="A3" s="107"/>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
+      <c r="A3" s="105"/>
+      <c r="B3" s="107"/>
+      <c r="C3" s="107"/>
+      <c r="D3" s="107"/>
       <c r="E3" s="3">
         <v>7</v>
       </c>
@@ -2729,10 +2738,10 @@
       <c r="AI3" s="74"/>
     </row>
     <row r="4" spans="1:35">
-      <c r="A4" s="107"/>
-      <c r="B4" s="92"/>
-      <c r="C4" s="92"/>
-      <c r="D4" s="92"/>
+      <c r="A4" s="105"/>
+      <c r="B4" s="107"/>
+      <c r="C4" s="107"/>
+      <c r="D4" s="107"/>
       <c r="E4" s="3">
         <v>11</v>
       </c>
@@ -2770,10 +2779,10 @@
       <c r="AI4" s="74"/>
     </row>
     <row r="5" spans="1:35">
-      <c r="A5" s="107"/>
-      <c r="B5" s="92"/>
-      <c r="C5" s="92"/>
-      <c r="D5" s="95"/>
+      <c r="A5" s="105"/>
+      <c r="B5" s="107"/>
+      <c r="C5" s="107"/>
+      <c r="D5" s="97"/>
       <c r="E5" s="3">
         <v>12</v>
       </c>
@@ -2811,10 +2820,10 @@
       <c r="AI5" s="74"/>
     </row>
     <row r="6" spans="1:35">
-      <c r="A6" s="107"/>
-      <c r="B6" s="92"/>
-      <c r="C6" s="92"/>
-      <c r="D6" s="91" t="s">
+      <c r="A6" s="105"/>
+      <c r="B6" s="107"/>
+      <c r="C6" s="107"/>
+      <c r="D6" s="96" t="s">
         <v>19</v>
       </c>
       <c r="E6" s="3">
@@ -2854,10 +2863,10 @@
       <c r="AI6" s="74"/>
     </row>
     <row r="7" spans="1:35">
-      <c r="A7" s="107"/>
-      <c r="B7" s="92"/>
-      <c r="C7" s="92"/>
-      <c r="D7" s="92"/>
+      <c r="A7" s="105"/>
+      <c r="B7" s="107"/>
+      <c r="C7" s="107"/>
+      <c r="D7" s="107"/>
       <c r="E7" s="3">
         <v>5</v>
       </c>
@@ -2895,10 +2904,10 @@
       <c r="AI7" s="74"/>
     </row>
     <row r="8" spans="1:35">
-      <c r="A8" s="107"/>
-      <c r="B8" s="92"/>
-      <c r="C8" s="95"/>
-      <c r="D8" s="95"/>
+      <c r="A8" s="105"/>
+      <c r="B8" s="107"/>
+      <c r="C8" s="97"/>
+      <c r="D8" s="97"/>
       <c r="E8" s="3">
         <v>13</v>
       </c>
@@ -2936,12 +2945,12 @@
       <c r="AI8" s="74"/>
     </row>
     <row r="9" spans="1:35">
-      <c r="A9" s="107"/>
-      <c r="B9" s="92"/>
-      <c r="C9" s="91" t="s">
+      <c r="A9" s="105"/>
+      <c r="B9" s="107"/>
+      <c r="C9" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="91" t="s">
+      <c r="D9" s="96" t="s">
         <v>18</v>
       </c>
       <c r="E9" s="3" t="s">
@@ -2981,10 +2990,10 @@
       <c r="AI9" s="74"/>
     </row>
     <row r="10" spans="1:35">
-      <c r="A10" s="107"/>
-      <c r="B10" s="92"/>
-      <c r="C10" s="92"/>
-      <c r="D10" s="92"/>
+      <c r="A10" s="105"/>
+      <c r="B10" s="107"/>
+      <c r="C10" s="107"/>
+      <c r="D10" s="107"/>
       <c r="E10" s="3" t="s">
         <v>22</v>
       </c>
@@ -3022,10 +3031,10 @@
       <c r="AI10" s="74"/>
     </row>
     <row r="11" spans="1:35">
-      <c r="A11" s="107"/>
-      <c r="B11" s="92"/>
-      <c r="C11" s="92"/>
-      <c r="D11" s="92"/>
+      <c r="A11" s="105"/>
+      <c r="B11" s="107"/>
+      <c r="C11" s="107"/>
+      <c r="D11" s="107"/>
       <c r="E11" s="3" t="s">
         <v>23</v>
       </c>
@@ -3065,10 +3074,10 @@
       <c r="AI11" s="74"/>
     </row>
     <row r="12" spans="1:35">
-      <c r="A12" s="107"/>
-      <c r="B12" s="92"/>
-      <c r="C12" s="92"/>
-      <c r="D12" s="95"/>
+      <c r="A12" s="105"/>
+      <c r="B12" s="107"/>
+      <c r="C12" s="107"/>
+      <c r="D12" s="97"/>
       <c r="E12" s="3" t="s">
         <v>24</v>
       </c>
@@ -3108,10 +3117,10 @@
       <c r="AI12" s="74"/>
     </row>
     <row r="13" spans="1:35">
-      <c r="A13" s="107"/>
-      <c r="B13" s="92"/>
-      <c r="C13" s="92"/>
-      <c r="D13" s="91" t="s">
+      <c r="A13" s="105"/>
+      <c r="B13" s="107"/>
+      <c r="C13" s="107"/>
+      <c r="D13" s="96" t="s">
         <v>19</v>
       </c>
       <c r="E13" s="3" t="s">
@@ -3151,10 +3160,10 @@
       <c r="AI13" s="74"/>
     </row>
     <row r="14" spans="1:35">
-      <c r="A14" s="107"/>
-      <c r="B14" s="92"/>
-      <c r="C14" s="95"/>
-      <c r="D14" s="95"/>
+      <c r="A14" s="105"/>
+      <c r="B14" s="107"/>
+      <c r="C14" s="97"/>
+      <c r="D14" s="97"/>
       <c r="E14" s="3" t="s">
         <v>26</v>
       </c>
@@ -3192,9 +3201,9 @@
       <c r="AI14" s="74"/>
     </row>
     <row r="15" spans="1:35">
-      <c r="A15" s="107"/>
-      <c r="B15" s="92"/>
-      <c r="C15" s="91" t="s">
+      <c r="A15" s="105"/>
+      <c r="B15" s="107"/>
+      <c r="C15" s="96" t="s">
         <v>27</v>
       </c>
       <c r="D15" s="3" t="s">
@@ -3235,10 +3244,10 @@
       <c r="AI15" s="74"/>
     </row>
     <row r="16" spans="1:35">
-      <c r="A16" s="107"/>
-      <c r="B16" s="92"/>
-      <c r="C16" s="92"/>
-      <c r="D16" s="91" t="s">
+      <c r="A16" s="105"/>
+      <c r="B16" s="107"/>
+      <c r="C16" s="107"/>
+      <c r="D16" s="96" t="s">
         <v>19</v>
       </c>
       <c r="E16" s="3" t="s">
@@ -3278,10 +3287,10 @@
       <c r="AI16" s="74"/>
     </row>
     <row r="17" spans="1:35">
-      <c r="A17" s="107"/>
-      <c r="B17" s="92"/>
-      <c r="C17" s="92"/>
-      <c r="D17" s="92"/>
+      <c r="A17" s="105"/>
+      <c r="B17" s="107"/>
+      <c r="C17" s="107"/>
+      <c r="D17" s="107"/>
       <c r="E17" s="3" t="s">
         <v>30</v>
       </c>
@@ -3319,14 +3328,14 @@
       <c r="AI17" s="74"/>
     </row>
     <row r="18" spans="1:35">
-      <c r="A18" s="107"/>
-      <c r="B18" s="93" t="s">
+      <c r="A18" s="105"/>
+      <c r="B18" s="91" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="91" t="s">
+      <c r="C18" s="96" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="91" t="s">
+      <c r="D18" s="96" t="s">
         <v>18</v>
       </c>
       <c r="E18" s="3">
@@ -3366,10 +3375,10 @@
       <c r="AI18" s="74"/>
     </row>
     <row r="19" spans="1:35">
-      <c r="A19" s="107"/>
-      <c r="B19" s="94"/>
-      <c r="C19" s="92"/>
-      <c r="D19" s="92"/>
+      <c r="A19" s="105"/>
+      <c r="B19" s="93"/>
+      <c r="C19" s="107"/>
+      <c r="D19" s="107"/>
       <c r="E19" s="3">
         <v>7</v>
       </c>
@@ -3407,10 +3416,10 @@
       <c r="AI19" s="74"/>
     </row>
     <row r="20" spans="1:35">
-      <c r="A20" s="107"/>
-      <c r="B20" s="94"/>
-      <c r="C20" s="92"/>
-      <c r="D20" s="92"/>
+      <c r="A20" s="105"/>
+      <c r="B20" s="93"/>
+      <c r="C20" s="107"/>
+      <c r="D20" s="107"/>
       <c r="E20" s="3">
         <v>11</v>
       </c>
@@ -3448,10 +3457,10 @@
       <c r="AI20" s="74"/>
     </row>
     <row r="21" spans="1:35">
-      <c r="A21" s="107"/>
-      <c r="B21" s="94"/>
-      <c r="C21" s="92"/>
-      <c r="D21" s="95"/>
+      <c r="A21" s="105"/>
+      <c r="B21" s="93"/>
+      <c r="C21" s="107"/>
+      <c r="D21" s="97"/>
       <c r="E21" s="3">
         <v>12</v>
       </c>
@@ -3489,10 +3498,10 @@
       <c r="AI21" s="74"/>
     </row>
     <row r="22" spans="1:35">
-      <c r="A22" s="107"/>
-      <c r="B22" s="94"/>
-      <c r="C22" s="92"/>
-      <c r="D22" s="91" t="s">
+      <c r="A22" s="105"/>
+      <c r="B22" s="93"/>
+      <c r="C22" s="107"/>
+      <c r="D22" s="96" t="s">
         <v>19</v>
       </c>
       <c r="E22" s="3">
@@ -3532,10 +3541,10 @@
       <c r="AI22" s="74"/>
     </row>
     <row r="23" spans="1:35">
-      <c r="A23" s="107"/>
-      <c r="B23" s="94"/>
-      <c r="C23" s="92"/>
-      <c r="D23" s="92"/>
+      <c r="A23" s="105"/>
+      <c r="B23" s="93"/>
+      <c r="C23" s="107"/>
+      <c r="D23" s="107"/>
       <c r="E23" s="3">
         <v>5</v>
       </c>
@@ -3573,10 +3582,10 @@
       <c r="AI23" s="74"/>
     </row>
     <row r="24" spans="1:35">
-      <c r="A24" s="107"/>
-      <c r="B24" s="94"/>
-      <c r="C24" s="92"/>
-      <c r="D24" s="95"/>
+      <c r="A24" s="105"/>
+      <c r="B24" s="93"/>
+      <c r="C24" s="107"/>
+      <c r="D24" s="97"/>
       <c r="E24" s="3">
         <v>13</v>
       </c>
@@ -3614,12 +3623,12 @@
       <c r="AI24" s="74"/>
     </row>
     <row r="25" spans="1:35">
-      <c r="A25" s="107"/>
-      <c r="B25" s="94"/>
-      <c r="C25" s="96" t="s">
+      <c r="A25" s="105"/>
+      <c r="B25" s="93"/>
+      <c r="C25" s="103" t="s">
         <v>84</v>
       </c>
-      <c r="D25" s="97"/>
+      <c r="D25" s="108"/>
       <c r="E25" s="3" t="s">
         <v>51</v>
       </c>
@@ -3677,10 +3686,10 @@
       </c>
     </row>
     <row r="26" spans="1:35">
-      <c r="A26" s="107"/>
-      <c r="B26" s="94"/>
-      <c r="C26" s="96"/>
-      <c r="D26" s="98"/>
+      <c r="A26" s="105"/>
+      <c r="B26" s="93"/>
+      <c r="C26" s="103"/>
+      <c r="D26" s="92"/>
       <c r="E26" s="3" t="s">
         <v>52</v>
       </c>
@@ -3738,10 +3747,10 @@
       <c r="AI26" s="74"/>
     </row>
     <row r="27" spans="1:35">
-      <c r="A27" s="107"/>
-      <c r="B27" s="94"/>
-      <c r="C27" s="96"/>
-      <c r="D27" s="98"/>
+      <c r="A27" s="105"/>
+      <c r="B27" s="93"/>
+      <c r="C27" s="103"/>
+      <c r="D27" s="92"/>
       <c r="E27" s="3" t="s">
         <v>54</v>
       </c>
@@ -3799,10 +3808,10 @@
       </c>
     </row>
     <row r="28" spans="1:35">
-      <c r="A28" s="107"/>
-      <c r="B28" s="94"/>
-      <c r="C28" s="96"/>
-      <c r="D28" s="98"/>
+      <c r="A28" s="105"/>
+      <c r="B28" s="93"/>
+      <c r="C28" s="103"/>
+      <c r="D28" s="92"/>
       <c r="E28" s="3" t="s">
         <v>53</v>
       </c>
@@ -3860,11 +3869,11 @@
       </c>
     </row>
     <row r="29" spans="1:35">
-      <c r="A29" s="107"/>
-      <c r="B29" s="93" t="s">
+      <c r="A29" s="105"/>
+      <c r="B29" s="91" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="98"/>
+      <c r="C29" s="92"/>
       <c r="D29" s="3" t="s">
         <v>18</v>
       </c>
@@ -3903,10 +3912,10 @@
       <c r="AI29" s="74"/>
     </row>
     <row r="30" spans="1:35">
-      <c r="A30" s="107"/>
-      <c r="B30" s="94"/>
-      <c r="C30" s="98"/>
-      <c r="D30" s="91" t="s">
+      <c r="A30" s="105"/>
+      <c r="B30" s="93"/>
+      <c r="C30" s="92"/>
+      <c r="D30" s="96" t="s">
         <v>19</v>
       </c>
       <c r="E30" s="3" t="s">
@@ -3946,10 +3955,10 @@
       <c r="AI30" s="74"/>
     </row>
     <row r="31" spans="1:35">
-      <c r="A31" s="107"/>
-      <c r="B31" s="99"/>
-      <c r="C31" s="100"/>
-      <c r="D31" s="95"/>
+      <c r="A31" s="105"/>
+      <c r="B31" s="94"/>
+      <c r="C31" s="95"/>
+      <c r="D31" s="97"/>
       <c r="E31" s="3" t="s">
         <v>35</v>
       </c>
@@ -3987,13 +3996,13 @@
       <c r="AI31" s="74"/>
     </row>
     <row r="32" spans="1:35">
-      <c r="A32" s="108"/>
-      <c r="B32" s="101" t="s">
+      <c r="A32" s="106"/>
+      <c r="B32" s="98" t="s">
         <v>36</v>
       </c>
-      <c r="C32" s="102"/>
-      <c r="D32" s="102"/>
-      <c r="E32" s="103"/>
+      <c r="C32" s="99"/>
+      <c r="D32" s="99"/>
+      <c r="E32" s="100"/>
       <c r="F32" s="19"/>
       <c r="G32" s="19"/>
       <c r="H32" s="19"/>
@@ -4026,15 +4035,15 @@
       <c r="AI32" s="74"/>
     </row>
     <row r="33" spans="1:35">
-      <c r="A33" s="104" t="s">
+      <c r="A33" s="101" t="s">
         <v>37</v>
       </c>
-      <c r="B33" s="105" t="s">
+      <c r="B33" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="C33" s="105"/>
-      <c r="D33" s="105"/>
-      <c r="E33" s="105"/>
+      <c r="C33" s="102"/>
+      <c r="D33" s="102"/>
+      <c r="E33" s="102"/>
       <c r="F33" s="19"/>
       <c r="G33" s="19"/>
       <c r="H33" s="19"/>
@@ -4067,8 +4076,8 @@
       <c r="AI33" s="74"/>
     </row>
     <row r="34" spans="1:35">
-      <c r="A34" s="104"/>
-      <c r="B34" s="104" t="s">
+      <c r="A34" s="101"/>
+      <c r="B34" s="101" t="s">
         <v>39</v>
       </c>
       <c r="C34" s="3" t="s">
@@ -4112,8 +4121,8 @@
       <c r="AI34" s="74"/>
     </row>
     <row r="35" spans="1:35">
-      <c r="A35" s="104"/>
-      <c r="B35" s="104"/>
+      <c r="A35" s="101"/>
+      <c r="B35" s="101"/>
       <c r="C35" s="3" t="s">
         <v>41</v>
       </c>
@@ -4155,8 +4164,8 @@
       <c r="AI35" s="74"/>
     </row>
     <row r="36" spans="1:35">
-      <c r="A36" s="104"/>
-      <c r="B36" s="104"/>
+      <c r="A36" s="101"/>
+      <c r="B36" s="101"/>
       <c r="C36" s="3" t="s">
         <v>42</v>
       </c>
@@ -4200,8 +4209,8 @@
       <c r="AI36" s="74"/>
     </row>
     <row r="37" spans="1:35">
-      <c r="A37" s="104"/>
-      <c r="B37" s="104"/>
+      <c r="A37" s="101"/>
+      <c r="B37" s="101"/>
       <c r="C37" s="3" t="s">
         <v>43</v>
       </c>
@@ -4245,8 +4254,8 @@
       <c r="AI37" s="74"/>
     </row>
     <row r="38" spans="1:35">
-      <c r="A38" s="104"/>
-      <c r="B38" s="104"/>
+      <c r="A38" s="101"/>
+      <c r="B38" s="101"/>
       <c r="C38" s="3" t="s">
         <v>44</v>
       </c>
@@ -4288,8 +4297,8 @@
       <c r="AI38" s="74"/>
     </row>
     <row r="39" spans="1:35">
-      <c r="A39" s="104"/>
-      <c r="B39" s="104"/>
+      <c r="A39" s="101"/>
+      <c r="B39" s="101"/>
       <c r="C39" s="3" t="s">
         <v>45</v>
       </c>
@@ -4335,13 +4344,13 @@
       <c r="AI39" s="74"/>
     </row>
     <row r="40" spans="1:35">
-      <c r="A40" s="104"/>
-      <c r="B40" s="104"/>
-      <c r="C40" s="96" t="s">
+      <c r="A40" s="101"/>
+      <c r="B40" s="101"/>
+      <c r="C40" s="103" t="s">
         <v>73</v>
       </c>
-      <c r="D40" s="96"/>
-      <c r="E40" s="96"/>
+      <c r="D40" s="103"/>
+      <c r="E40" s="103"/>
       <c r="F40" s="19"/>
       <c r="G40" s="19"/>
       <c r="H40" s="19"/>
@@ -6090,6 +6099,13 @@
     <row r="1555" customFormat="1"/>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="B18:B28"/>
+    <mergeCell ref="C18:C24"/>
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="C25:C28"/>
+    <mergeCell ref="D25:D28"/>
     <mergeCell ref="B29:C31"/>
     <mergeCell ref="D30:D31"/>
     <mergeCell ref="B32:E32"/>
@@ -6106,13 +6122,6 @@
     <mergeCell ref="D9:D12"/>
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="C15:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="B18:B28"/>
-    <mergeCell ref="C18:C24"/>
-    <mergeCell ref="D18:D21"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="C25:C28"/>
-    <mergeCell ref="D25:D28"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6123,8 +6132,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D4E02B6-5FA5-4F2A-9671-F4DAE570801C}">
   <dimension ref="A1:F72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A70" sqref="A70:A72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6239,7 +6248,9 @@
       <c r="F6" s="53"/>
     </row>
     <row r="7" spans="1:6" ht="65.400000000000006" customHeight="1">
-      <c r="A7" s="37"/>
+      <c r="A7" s="37">
+        <v>5</v>
+      </c>
       <c r="B7" s="38" t="s">
         <v>234</v>
       </c>
@@ -6255,7 +6266,9 @@
       <c r="F7" s="53"/>
     </row>
     <row r="8" spans="1:6" ht="65.400000000000006" customHeight="1">
-      <c r="A8" s="37"/>
+      <c r="A8" s="37">
+        <v>6</v>
+      </c>
       <c r="B8" s="38" t="s">
         <v>186</v>
       </c>
@@ -6291,7 +6304,9 @@
       <c r="F10" s="55"/>
     </row>
     <row r="11" spans="1:6" s="5" customFormat="1" ht="39.6">
-      <c r="A11" s="83"/>
+      <c r="A11" s="83">
+        <v>7</v>
+      </c>
       <c r="B11" s="38" t="s">
         <v>221</v>
       </c>
@@ -6305,7 +6320,9 @@
       <c r="F11" s="85"/>
     </row>
     <row r="12" spans="1:6" s="5" customFormat="1" ht="39.6">
-      <c r="A12" s="83"/>
+      <c r="A12" s="83">
+        <v>8</v>
+      </c>
       <c r="B12" s="38" t="s">
         <v>248</v>
       </c>
@@ -6319,7 +6336,9 @@
       <c r="F12" s="85"/>
     </row>
     <row r="13" spans="1:6" s="5" customFormat="1" ht="39.6">
-      <c r="A13" s="83"/>
+      <c r="A13" s="83">
+        <v>9</v>
+      </c>
       <c r="B13" s="38" t="s">
         <v>222</v>
       </c>
@@ -6333,7 +6352,9 @@
       <c r="F13" s="85"/>
     </row>
     <row r="14" spans="1:6" s="5" customFormat="1" ht="39.6">
-      <c r="A14" s="83"/>
+      <c r="A14" s="83">
+        <v>10</v>
+      </c>
       <c r="B14" s="38" t="s">
         <v>223</v>
       </c>
@@ -6347,7 +6368,9 @@
       <c r="F14" s="85"/>
     </row>
     <row r="15" spans="1:6" s="5" customFormat="1" ht="39.6">
-      <c r="A15" s="83"/>
+      <c r="A15" s="83">
+        <v>11</v>
+      </c>
       <c r="B15" s="38" t="s">
         <v>224</v>
       </c>
@@ -6372,7 +6395,7 @@
     </row>
     <row r="17" spans="1:6" ht="69.599999999999994" customHeight="1">
       <c r="A17" s="37">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B17" s="38" t="s">
         <v>189</v>
@@ -6390,7 +6413,7 @@
     </row>
     <row r="18" spans="1:6" ht="64.2" customHeight="1">
       <c r="A18" s="37">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B18" s="38" t="s">
         <v>236</v>
@@ -6408,7 +6431,7 @@
     </row>
     <row r="19" spans="1:6" ht="72" customHeight="1">
       <c r="A19" s="37">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B19" s="38" t="s">
         <v>237</v>
@@ -6426,7 +6449,7 @@
     </row>
     <row r="20" spans="1:6" ht="72" customHeight="1">
       <c r="A20" s="37">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B20" s="38" t="s">
         <v>190</v>
@@ -6444,7 +6467,7 @@
     </row>
     <row r="21" spans="1:6" ht="72" customHeight="1">
       <c r="A21" s="37">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B21" s="38" t="s">
         <v>191</v>
@@ -6462,7 +6485,7 @@
     </row>
     <row r="22" spans="1:6" ht="72" customHeight="1">
       <c r="A22" s="37">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B22" s="38" t="s">
         <v>192</v>
@@ -6480,7 +6503,7 @@
     </row>
     <row r="23" spans="1:6" ht="72" customHeight="1">
       <c r="A23" s="37">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B23" s="38" t="s">
         <v>193</v>
@@ -6497,7 +6520,9 @@
       <c r="F23" s="53"/>
     </row>
     <row r="24" spans="1:6" ht="72" customHeight="1">
-      <c r="A24" s="37"/>
+      <c r="A24" s="37">
+        <v>19</v>
+      </c>
       <c r="B24" s="38" t="s">
         <v>194</v>
       </c>
@@ -6513,7 +6538,9 @@
       <c r="F24" s="53"/>
     </row>
     <row r="25" spans="1:6" ht="72" customHeight="1">
-      <c r="A25" s="37"/>
+      <c r="A25" s="37">
+        <v>20</v>
+      </c>
       <c r="B25" s="38" t="s">
         <v>195</v>
       </c>
@@ -6540,7 +6567,7 @@
     </row>
     <row r="27" spans="1:6" ht="64.8" customHeight="1">
       <c r="A27" s="37">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B27" s="38" t="s">
         <v>196</v>
@@ -6558,7 +6585,7 @@
     </row>
     <row r="28" spans="1:6" ht="64.8" customHeight="1">
       <c r="A28" s="37">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B28" s="38" t="s">
         <v>197</v>
@@ -6576,7 +6603,7 @@
     </row>
     <row r="29" spans="1:6" ht="64.8" customHeight="1">
       <c r="A29" s="37">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B29" s="38" t="s">
         <v>198</v>
@@ -6594,7 +6621,7 @@
     </row>
     <row r="30" spans="1:6" ht="64.8" customHeight="1">
       <c r="A30" s="37">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B30" s="38" t="s">
         <v>199</v>
@@ -6612,7 +6639,7 @@
     </row>
     <row r="31" spans="1:6" ht="64.8" customHeight="1">
       <c r="A31" s="37">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B31" s="38" t="s">
         <v>200</v>
@@ -6630,7 +6657,7 @@
     </row>
     <row r="32" spans="1:6" ht="64.8" customHeight="1">
       <c r="A32" s="37">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B32" s="38" t="s">
         <v>201</v>
@@ -6648,7 +6675,7 @@
     </row>
     <row r="33" spans="1:6" ht="64.8" customHeight="1">
       <c r="A33" s="37">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B33" s="38" t="s">
         <v>202</v>
@@ -6666,7 +6693,7 @@
     </row>
     <row r="34" spans="1:6" ht="64.8" customHeight="1">
       <c r="A34" s="37">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B34" s="38" t="s">
         <v>203</v>
@@ -6684,7 +6711,7 @@
     </row>
     <row r="35" spans="1:6" ht="64.8" customHeight="1">
       <c r="A35" s="37">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B35" s="38" t="s">
         <v>204</v>
@@ -6702,7 +6729,7 @@
     </row>
     <row r="36" spans="1:6" ht="64.8" customHeight="1">
       <c r="A36" s="37">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B36" s="38" t="s">
         <v>205</v>
@@ -6720,7 +6747,7 @@
     </row>
     <row r="37" spans="1:6" ht="64.8" customHeight="1">
       <c r="A37" s="37">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B37" s="38" t="s">
         <v>206</v>
@@ -6738,7 +6765,7 @@
     </row>
     <row r="38" spans="1:6" ht="64.8" customHeight="1">
       <c r="A38" s="37">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B38" s="38" t="s">
         <v>207</v>
@@ -6756,7 +6783,7 @@
     </row>
     <row r="39" spans="1:6" ht="64.8" customHeight="1">
       <c r="A39" s="37">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B39" s="38" t="s">
         <v>208</v>
@@ -6774,7 +6801,7 @@
     </row>
     <row r="40" spans="1:6" ht="64.8" customHeight="1">
       <c r="A40" s="37">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B40" s="38" t="s">
         <v>209</v>
@@ -6792,7 +6819,7 @@
     </row>
     <row r="41" spans="1:6" ht="64.8" customHeight="1">
       <c r="A41" s="37">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B41" s="38" t="s">
         <v>210</v>
@@ -6810,7 +6837,7 @@
     </row>
     <row r="42" spans="1:6" ht="64.8" customHeight="1">
       <c r="A42" s="37">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B42" s="38" t="s">
         <v>211</v>
@@ -6828,7 +6855,7 @@
     </row>
     <row r="43" spans="1:6" ht="64.8" customHeight="1">
       <c r="A43" s="37">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B43" s="38" t="s">
         <v>212</v>
@@ -6856,7 +6883,7 @@
     </row>
     <row r="45" spans="1:6" ht="58.8" customHeight="1">
       <c r="A45" s="77">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B45" s="78" t="s">
         <v>273</v>
@@ -6874,7 +6901,7 @@
     </row>
     <row r="46" spans="1:6" ht="64.8" customHeight="1">
       <c r="A46" s="81">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B46" s="38" t="s">
         <v>213</v>
@@ -6891,7 +6918,9 @@
       <c r="F46" s="81"/>
     </row>
     <row r="47" spans="1:6" ht="39.6">
-      <c r="A47" s="3"/>
+      <c r="A47" s="116">
+        <v>40</v>
+      </c>
       <c r="B47" s="38" t="s">
         <v>214</v>
       </c>
@@ -6917,6 +6946,9 @@
       <c r="F48" s="55"/>
     </row>
     <row r="49" spans="1:6" ht="52.8">
+      <c r="A49" s="117">
+        <v>41</v>
+      </c>
       <c r="B49" s="38" t="s">
         <v>240</v>
       </c>
@@ -6931,6 +6963,9 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="52.8">
+      <c r="A50" s="117">
+        <v>42</v>
+      </c>
       <c r="B50" s="38" t="s">
         <v>255</v>
       </c>
@@ -6945,6 +6980,9 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="52.8">
+      <c r="A51" s="117">
+        <v>43</v>
+      </c>
       <c r="B51" s="38" t="s">
         <v>256</v>
       </c>
@@ -6969,6 +7007,9 @@
       <c r="F52" s="55"/>
     </row>
     <row r="53" spans="1:6" ht="66">
+      <c r="A53" s="118">
+        <v>44</v>
+      </c>
       <c r="B53" s="38" t="s">
         <v>260</v>
       </c>
@@ -6983,6 +7024,9 @@
       </c>
     </row>
     <row r="54" spans="1:6" ht="66">
+      <c r="A54" s="118">
+        <v>45</v>
+      </c>
       <c r="B54" s="38" t="s">
         <v>263</v>
       </c>
@@ -6997,6 +7041,9 @@
       </c>
     </row>
     <row r="55" spans="1:6" ht="66">
+      <c r="A55" s="118">
+        <v>46</v>
+      </c>
       <c r="B55" s="38" t="s">
         <v>265</v>
       </c>
@@ -7011,6 +7058,9 @@
       </c>
     </row>
     <row r="56" spans="1:6" ht="66">
+      <c r="A56" s="118">
+        <v>47</v>
+      </c>
       <c r="B56" s="38" t="s">
         <v>266</v>
       </c>
@@ -7035,6 +7085,9 @@
       <c r="F57" s="55"/>
     </row>
     <row r="58" spans="1:6" ht="66">
+      <c r="A58" s="118">
+        <v>48</v>
+      </c>
       <c r="B58" s="38" t="s">
         <v>270</v>
       </c>
@@ -7049,6 +7102,9 @@
       </c>
     </row>
     <row r="59" spans="1:6" ht="66">
+      <c r="A59" s="118">
+        <v>49</v>
+      </c>
       <c r="B59" s="38" t="s">
         <v>278</v>
       </c>
@@ -7063,6 +7119,9 @@
       </c>
     </row>
     <row r="60" spans="1:6" ht="52.8">
+      <c r="A60" s="118">
+        <v>50</v>
+      </c>
       <c r="B60" s="38" t="s">
         <v>279</v>
       </c>
@@ -7087,6 +7146,9 @@
       <c r="F61" s="55"/>
     </row>
     <row r="62" spans="1:6" ht="52.8">
+      <c r="A62" s="118">
+        <v>51</v>
+      </c>
       <c r="B62" s="78" t="s">
         <v>283</v>
       </c>
@@ -7101,6 +7163,9 @@
       </c>
     </row>
     <row r="63" spans="1:6" ht="66">
+      <c r="A63" s="118">
+        <v>52</v>
+      </c>
       <c r="B63" s="78" t="s">
         <v>285</v>
       </c>
@@ -7115,6 +7180,9 @@
       </c>
     </row>
     <row r="64" spans="1:6" ht="66">
+      <c r="A64" s="118">
+        <v>53</v>
+      </c>
       <c r="B64" s="78" t="s">
         <v>286</v>
       </c>
@@ -7139,6 +7207,9 @@
       <c r="F65" s="55"/>
     </row>
     <row r="66" spans="1:6" ht="57.6">
+      <c r="A66" s="118">
+        <v>54</v>
+      </c>
       <c r="B66" s="38" t="s">
         <v>288</v>
       </c>
@@ -7153,6 +7224,9 @@
       </c>
     </row>
     <row r="67" spans="1:6" ht="86.4">
+      <c r="A67" s="118">
+        <v>55</v>
+      </c>
       <c r="B67" s="38" t="s">
         <v>289</v>
       </c>
@@ -7167,6 +7241,9 @@
       </c>
     </row>
     <row r="68" spans="1:6" ht="72">
+      <c r="A68" s="118">
+        <v>56</v>
+      </c>
       <c r="B68" s="38" t="s">
         <v>299</v>
       </c>
@@ -7191,6 +7268,9 @@
       <c r="F69" s="55"/>
     </row>
     <row r="70" spans="1:6" ht="72">
+      <c r="A70" s="118">
+        <v>58</v>
+      </c>
       <c r="B70" s="38" t="s">
         <v>303</v>
       </c>
@@ -7205,6 +7285,9 @@
       </c>
     </row>
     <row r="71" spans="1:6" ht="115.2">
+      <c r="A71" s="118">
+        <v>59</v>
+      </c>
       <c r="B71" s="38" t="s">
         <v>306</v>
       </c>
@@ -7219,6 +7302,9 @@
       </c>
     </row>
     <row r="72" spans="1:6" ht="100.8">
+      <c r="A72" s="118">
+        <v>60</v>
+      </c>
       <c r="B72" s="38" t="s">
         <v>309</v>
       </c>
@@ -7241,7 +7327,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{176EB751-EC2C-4D6C-9718-2582406CD46D}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A33" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -7943,16 +8029,16 @@
       </c>
     </row>
     <row r="2" spans="1:25">
-      <c r="A2" s="106" t="s">
+      <c r="A2" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="91" t="s">
+      <c r="B2" s="96" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="91" t="s">
+      <c r="C2" s="96" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="91" t="s">
+      <c r="D2" s="96" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="3">
@@ -7978,10 +8064,10 @@
       <c r="U2" s="30"/>
     </row>
     <row r="3" spans="1:25">
-      <c r="A3" s="107"/>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
+      <c r="A3" s="105"/>
+      <c r="B3" s="107"/>
+      <c r="C3" s="107"/>
+      <c r="D3" s="107"/>
       <c r="E3" s="3">
         <v>7</v>
       </c>
@@ -8023,10 +8109,10 @@
       </c>
     </row>
     <row r="4" spans="1:25">
-      <c r="A4" s="107"/>
-      <c r="B4" s="92"/>
-      <c r="C4" s="92"/>
-      <c r="D4" s="92"/>
+      <c r="A4" s="105"/>
+      <c r="B4" s="107"/>
+      <c r="C4" s="107"/>
+      <c r="D4" s="107"/>
       <c r="E4" s="3">
         <v>11</v>
       </c>
@@ -8050,10 +8136,10 @@
       <c r="U4" s="30"/>
     </row>
     <row r="5" spans="1:25">
-      <c r="A5" s="107"/>
-      <c r="B5" s="92"/>
-      <c r="C5" s="92"/>
-      <c r="D5" s="95"/>
+      <c r="A5" s="105"/>
+      <c r="B5" s="107"/>
+      <c r="C5" s="107"/>
+      <c r="D5" s="97"/>
       <c r="E5" s="3">
         <v>12</v>
       </c>
@@ -8077,10 +8163,10 @@
       <c r="U5" s="30"/>
     </row>
     <row r="6" spans="1:25">
-      <c r="A6" s="107"/>
-      <c r="B6" s="92"/>
-      <c r="C6" s="92"/>
-      <c r="D6" s="91" t="s">
+      <c r="A6" s="105"/>
+      <c r="B6" s="107"/>
+      <c r="C6" s="107"/>
+      <c r="D6" s="96" t="s">
         <v>19</v>
       </c>
       <c r="E6" s="3">
@@ -8107,10 +8193,10 @@
       <c r="W6" s="5"/>
     </row>
     <row r="7" spans="1:25">
-      <c r="A7" s="107"/>
-      <c r="B7" s="92"/>
-      <c r="C7" s="92"/>
-      <c r="D7" s="92"/>
+      <c r="A7" s="105"/>
+      <c r="B7" s="107"/>
+      <c r="C7" s="107"/>
+      <c r="D7" s="107"/>
       <c r="E7" s="3">
         <v>5</v>
       </c>
@@ -8134,10 +8220,10 @@
       <c r="U7" s="30"/>
     </row>
     <row r="8" spans="1:25">
-      <c r="A8" s="107"/>
-      <c r="B8" s="92"/>
-      <c r="C8" s="95"/>
-      <c r="D8" s="95"/>
+      <c r="A8" s="105"/>
+      <c r="B8" s="107"/>
+      <c r="C8" s="97"/>
+      <c r="D8" s="97"/>
       <c r="E8" s="3">
         <v>13</v>
       </c>
@@ -8161,12 +8247,12 @@
       <c r="U8" s="30"/>
     </row>
     <row r="9" spans="1:25">
-      <c r="A9" s="107"/>
-      <c r="B9" s="92"/>
-      <c r="C9" s="91" t="s">
+      <c r="A9" s="105"/>
+      <c r="B9" s="107"/>
+      <c r="C9" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="91" t="s">
+      <c r="D9" s="96" t="s">
         <v>18</v>
       </c>
       <c r="E9" s="3" t="s">
@@ -8192,10 +8278,10 @@
       <c r="U9" s="30"/>
     </row>
     <row r="10" spans="1:25">
-      <c r="A10" s="107"/>
-      <c r="B10" s="92"/>
-      <c r="C10" s="92"/>
-      <c r="D10" s="92"/>
+      <c r="A10" s="105"/>
+      <c r="B10" s="107"/>
+      <c r="C10" s="107"/>
+      <c r="D10" s="107"/>
       <c r="E10" s="3" t="s">
         <v>22</v>
       </c>
@@ -8221,10 +8307,10 @@
       <c r="U10" s="30"/>
     </row>
     <row r="11" spans="1:25">
-      <c r="A11" s="107"/>
-      <c r="B11" s="92"/>
-      <c r="C11" s="92"/>
-      <c r="D11" s="92"/>
+      <c r="A11" s="105"/>
+      <c r="B11" s="107"/>
+      <c r="C11" s="107"/>
+      <c r="D11" s="107"/>
       <c r="E11" s="3" t="s">
         <v>23</v>
       </c>
@@ -8266,10 +8352,10 @@
       </c>
     </row>
     <row r="12" spans="1:25">
-      <c r="A12" s="107"/>
-      <c r="B12" s="92"/>
-      <c r="C12" s="92"/>
-      <c r="D12" s="95"/>
+      <c r="A12" s="105"/>
+      <c r="B12" s="107"/>
+      <c r="C12" s="107"/>
+      <c r="D12" s="97"/>
       <c r="E12" s="3" t="s">
         <v>24</v>
       </c>
@@ -8293,10 +8379,10 @@
       <c r="U12" s="30"/>
     </row>
     <row r="13" spans="1:25">
-      <c r="A13" s="107"/>
-      <c r="B13" s="92"/>
-      <c r="C13" s="92"/>
-      <c r="D13" s="91" t="s">
+      <c r="A13" s="105"/>
+      <c r="B13" s="107"/>
+      <c r="C13" s="107"/>
+      <c r="D13" s="96" t="s">
         <v>19</v>
       </c>
       <c r="E13" s="3" t="s">
@@ -8323,10 +8409,10 @@
       <c r="Y13" s="5"/>
     </row>
     <row r="14" spans="1:25">
-      <c r="A14" s="107"/>
-      <c r="B14" s="92"/>
-      <c r="C14" s="95"/>
-      <c r="D14" s="95"/>
+      <c r="A14" s="105"/>
+      <c r="B14" s="107"/>
+      <c r="C14" s="97"/>
+      <c r="D14" s="97"/>
       <c r="E14" s="3" t="s">
         <v>26</v>
       </c>
@@ -8350,9 +8436,9 @@
       <c r="U14" s="30"/>
     </row>
     <row r="15" spans="1:25">
-      <c r="A15" s="107"/>
-      <c r="B15" s="92"/>
-      <c r="C15" s="91" t="s">
+      <c r="A15" s="105"/>
+      <c r="B15" s="107"/>
+      <c r="C15" s="96" t="s">
         <v>27</v>
       </c>
       <c r="D15" s="3" t="s">
@@ -8397,10 +8483,10 @@
       </c>
     </row>
     <row r="16" spans="1:25">
-      <c r="A16" s="107"/>
-      <c r="B16" s="92"/>
-      <c r="C16" s="92"/>
-      <c r="D16" s="91" t="s">
+      <c r="A16" s="105"/>
+      <c r="B16" s="107"/>
+      <c r="C16" s="107"/>
+      <c r="D16" s="96" t="s">
         <v>19</v>
       </c>
       <c r="E16" s="3" t="s">
@@ -8426,10 +8512,10 @@
       <c r="U16" s="30"/>
     </row>
     <row r="17" spans="1:21">
-      <c r="A17" s="107"/>
-      <c r="B17" s="92"/>
-      <c r="C17" s="92"/>
-      <c r="D17" s="92"/>
+      <c r="A17" s="105"/>
+      <c r="B17" s="107"/>
+      <c r="C17" s="107"/>
+      <c r="D17" s="107"/>
       <c r="E17" s="3" t="s">
         <v>30</v>
       </c>
@@ -8453,14 +8539,14 @@
       <c r="U17" s="30"/>
     </row>
     <row r="18" spans="1:21">
-      <c r="A18" s="107"/>
-      <c r="B18" s="93" t="s">
+      <c r="A18" s="105"/>
+      <c r="B18" s="91" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="91" t="s">
+      <c r="C18" s="96" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="91" t="s">
+      <c r="D18" s="96" t="s">
         <v>18</v>
       </c>
       <c r="E18" s="3">
@@ -8486,10 +8572,10 @@
       <c r="U18" s="30"/>
     </row>
     <row r="19" spans="1:21">
-      <c r="A19" s="107"/>
-      <c r="B19" s="94"/>
-      <c r="C19" s="92"/>
-      <c r="D19" s="92"/>
+      <c r="A19" s="105"/>
+      <c r="B19" s="93"/>
+      <c r="C19" s="107"/>
+      <c r="D19" s="107"/>
       <c r="E19" s="3">
         <v>7</v>
       </c>
@@ -8533,10 +8619,10 @@
       </c>
     </row>
     <row r="20" spans="1:21">
-      <c r="A20" s="107"/>
-      <c r="B20" s="94"/>
-      <c r="C20" s="92"/>
-      <c r="D20" s="92"/>
+      <c r="A20" s="105"/>
+      <c r="B20" s="93"/>
+      <c r="C20" s="107"/>
+      <c r="D20" s="107"/>
       <c r="E20" s="3">
         <v>11</v>
       </c>
@@ -8560,10 +8646,10 @@
       <c r="U20" s="30"/>
     </row>
     <row r="21" spans="1:21">
-      <c r="A21" s="107"/>
-      <c r="B21" s="94"/>
-      <c r="C21" s="92"/>
-      <c r="D21" s="95"/>
+      <c r="A21" s="105"/>
+      <c r="B21" s="93"/>
+      <c r="C21" s="107"/>
+      <c r="D21" s="97"/>
       <c r="E21" s="3">
         <v>12</v>
       </c>
@@ -8587,10 +8673,10 @@
       <c r="U21" s="30"/>
     </row>
     <row r="22" spans="1:21">
-      <c r="A22" s="107"/>
-      <c r="B22" s="94"/>
-      <c r="C22" s="92"/>
-      <c r="D22" s="91" t="s">
+      <c r="A22" s="105"/>
+      <c r="B22" s="93"/>
+      <c r="C22" s="107"/>
+      <c r="D22" s="96" t="s">
         <v>19</v>
       </c>
       <c r="E22" s="3">
@@ -8616,10 +8702,10 @@
       <c r="U22" s="30"/>
     </row>
     <row r="23" spans="1:21">
-      <c r="A23" s="107"/>
-      <c r="B23" s="94"/>
-      <c r="C23" s="92"/>
-      <c r="D23" s="92"/>
+      <c r="A23" s="105"/>
+      <c r="B23" s="93"/>
+      <c r="C23" s="107"/>
+      <c r="D23" s="107"/>
       <c r="E23" s="3">
         <v>5</v>
       </c>
@@ -8643,10 +8729,10 @@
       <c r="U23" s="30"/>
     </row>
     <row r="24" spans="1:21">
-      <c r="A24" s="107"/>
-      <c r="B24" s="94"/>
-      <c r="C24" s="92"/>
-      <c r="D24" s="95"/>
+      <c r="A24" s="105"/>
+      <c r="B24" s="93"/>
+      <c r="C24" s="107"/>
+      <c r="D24" s="97"/>
       <c r="E24" s="3">
         <v>13</v>
       </c>
@@ -8670,11 +8756,11 @@
       <c r="U24" s="30"/>
     </row>
     <row r="25" spans="1:21">
-      <c r="A25" s="107"/>
-      <c r="B25" s="93" t="s">
+      <c r="A25" s="105"/>
+      <c r="B25" s="91" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="98"/>
+      <c r="C25" s="92"/>
       <c r="D25" s="3" t="s">
         <v>18</v>
       </c>
@@ -8727,10 +8813,10 @@
       <c r="U25" s="30"/>
     </row>
     <row r="26" spans="1:21">
-      <c r="A26" s="107"/>
-      <c r="B26" s="94"/>
-      <c r="C26" s="98"/>
-      <c r="D26" s="91" t="s">
+      <c r="A26" s="105"/>
+      <c r="B26" s="93"/>
+      <c r="C26" s="92"/>
+      <c r="D26" s="96" t="s">
         <v>19</v>
       </c>
       <c r="E26" s="3" t="s">
@@ -8756,10 +8842,10 @@
       <c r="U26" s="30"/>
     </row>
     <row r="27" spans="1:21">
-      <c r="A27" s="107"/>
-      <c r="B27" s="99"/>
-      <c r="C27" s="100"/>
-      <c r="D27" s="95"/>
+      <c r="A27" s="105"/>
+      <c r="B27" s="94"/>
+      <c r="C27" s="95"/>
+      <c r="D27" s="97"/>
       <c r="E27" s="3" t="s">
         <v>35</v>
       </c>
@@ -8783,13 +8869,13 @@
       </c>
     </row>
     <row r="28" spans="1:21">
-      <c r="A28" s="108"/>
-      <c r="B28" s="101" t="s">
+      <c r="A28" s="106"/>
+      <c r="B28" s="98" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="102"/>
-      <c r="D28" s="102"/>
-      <c r="E28" s="103"/>
+      <c r="C28" s="99"/>
+      <c r="D28" s="99"/>
+      <c r="E28" s="100"/>
       <c r="F28" s="10">
         <v>0</v>
       </c>
@@ -8832,7 +8918,7 @@
       <c r="U28" s="30"/>
     </row>
     <row r="29" spans="1:21">
-      <c r="A29" s="106" t="s">
+      <c r="A29" s="104" t="s">
         <v>37</v>
       </c>
       <c r="B29" s="110" t="s">
@@ -8867,7 +8953,7 @@
       <c r="U29" s="30"/>
     </row>
     <row r="30" spans="1:21">
-      <c r="A30" s="107"/>
+      <c r="A30" s="105"/>
       <c r="B30" s="113" t="s">
         <v>39</v>
       </c>
@@ -8898,7 +8984,7 @@
       <c r="U30" s="30"/>
     </row>
     <row r="31" spans="1:21">
-      <c r="A31" s="107"/>
+      <c r="A31" s="105"/>
       <c r="B31" s="114"/>
       <c r="C31" s="3" t="s">
         <v>41</v>
@@ -8927,7 +9013,7 @@
       <c r="U31" s="30"/>
     </row>
     <row r="32" spans="1:21">
-      <c r="A32" s="107"/>
+      <c r="A32" s="105"/>
       <c r="B32" s="114"/>
       <c r="C32" s="3" t="s">
         <v>42</v>
@@ -8958,7 +9044,7 @@
       <c r="U32" s="30"/>
     </row>
     <row r="33" spans="1:21">
-      <c r="A33" s="107"/>
+      <c r="A33" s="105"/>
       <c r="B33" s="114"/>
       <c r="C33" s="3" t="s">
         <v>43</v>
@@ -8989,7 +9075,7 @@
       <c r="U33" s="30"/>
     </row>
     <row r="34" spans="1:21">
-      <c r="A34" s="107"/>
+      <c r="A34" s="105"/>
       <c r="B34" s="114"/>
       <c r="C34" s="3" t="s">
         <v>44</v>
@@ -10787,6 +10873,10 @@
     <row r="1549" customFormat="1"/>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B25:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="B18:B24"/>
+    <mergeCell ref="B28:E28"/>
     <mergeCell ref="A29:A35"/>
     <mergeCell ref="B29:E29"/>
     <mergeCell ref="B30:B35"/>
@@ -10803,10 +10893,6 @@
     <mergeCell ref="C18:C24"/>
     <mergeCell ref="D18:D21"/>
     <mergeCell ref="D22:D24"/>
-    <mergeCell ref="B25:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="B18:B24"/>
-    <mergeCell ref="B28:E28"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
